--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 EL.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 EL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>Course</t>
   </si>
@@ -118,108 +118,111 @@
     <t>PULAK S</t>
   </si>
   <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>7.41%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>PETERS R</t>
+  </si>
+  <si>
+    <t>74.19%</t>
+  </si>
+  <si>
+    <t>12.90%</t>
+  </si>
+  <si>
+    <t>6.45%</t>
+  </si>
+  <si>
+    <t>ELID-100</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>MCINTYRE C</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>ELIG-100</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>ELIG-200</t>
+  </si>
+  <si>
+    <t>37.04%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>14.81%</t>
+  </si>
+  <si>
+    <t>ELIG-250</t>
+  </si>
+  <si>
+    <t>STURGEON S</t>
+  </si>
+  <si>
+    <t>23.53%</t>
+  </si>
+  <si>
+    <t>52.94%</t>
+  </si>
+  <si>
+    <t>11.76%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>ELIG-300</t>
+  </si>
+  <si>
+    <t>COOPER B</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>38.89%</t>
+  </si>
+  <si>
+    <t>ELIL-100</t>
+  </si>
+  <si>
+    <t>WINSTON V</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
     <t>18.18%</t>
   </si>
   <si>
-    <t>63.64%</t>
-  </si>
-  <si>
-    <t>PETERS R</t>
-  </si>
-  <si>
-    <t>74.19%</t>
-  </si>
-  <si>
-    <t>12.90%</t>
-  </si>
-  <si>
-    <t>6.45%</t>
-  </si>
-  <si>
-    <t>ELID-100</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>MCINTYRE C</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>ELIG-100</t>
-  </si>
-  <si>
-    <t>30.77%</t>
-  </si>
-  <si>
-    <t>ELIG-200</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>14.81%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>ELIG-250</t>
-  </si>
-  <si>
-    <t>STURGEON S</t>
-  </si>
-  <si>
-    <t>23.53%</t>
-  </si>
-  <si>
-    <t>52.94%</t>
-  </si>
-  <si>
-    <t>11.76%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
-  </si>
-  <si>
-    <t>ELIG-300</t>
-  </si>
-  <si>
-    <t>COOPER B</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>38.89%</t>
-  </si>
-  <si>
-    <t>ELIL-100</t>
-  </si>
-  <si>
-    <t>WINSTON V</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
     <t>ELIL-200</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
     <t>ELIL-300</t>
   </si>
   <si>
-    <t>66.67%</t>
-  </si>
-  <si>
     <t>ELIO-100</t>
   </si>
   <si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>18.52%</t>
-  </si>
-  <si>
-    <t>7.41%</t>
   </si>
   <si>
     <t>ELIR-100</t>
@@ -874,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>2.636</v>
+        <v>2.6305</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -883,10 +880,10 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -894,7 +891,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n">
         <v>2.546</v>
@@ -903,21 +900,21 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -928,7 +925,7 @@
         <v>3.5</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -945,16 +942,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
         <v>3.833</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -968,24 +965,24 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" t="n">
         <v>2.769</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1007,19 +1004,19 @@
         <v>2.398</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1069,7 +1066,7 @@
         <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -1103,12 +1100,12 @@
         <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1125,10 +1122,10 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>27</v>
@@ -1136,7 +1133,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1147,24 +1144,24 @@
         <v>2.0835</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
         <v>73</v>
       </c>
-      <c r="G41" t="s">
-        <v>72</v>
-      </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1178,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -1198,10 +1195,10 @@
         <v>3.333</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
         <v>19</v>
@@ -1255,13 +1252,13 @@
         <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1286,7 +1283,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
         <v>19</v>
@@ -1359,26 +1356,26 @@
         <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
         <v>88</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" t="n">
         <v>2.429</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -1412,10 +1409,10 @@
         <v>1.452</v>
       </c>
       <c r="D65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" t="s">
         <v>93</v>
-      </c>
-      <c r="E65" t="s">
-        <v>94</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -1424,29 +1421,29 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C68" t="n">
         <v>3.222</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
         <v>19</v>
@@ -1457,7 +1454,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" t="n">
         <v>2.6</v>
@@ -1480,21 +1477,21 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" t="n">
         <v>2.0935</v>
       </c>
       <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
         <v>99</v>
-      </c>
-      <c r="E72" t="s">
-        <v>100</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -1508,55 +1505,55 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" t="n">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F75" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" t="n">
         <v>2.5125</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" t="s">
         <v>105</v>
-      </c>
-      <c r="F78" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
       </c>
       <c r="H78" t="s">
         <v>19</v>
@@ -1564,12 +1561,12 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
@@ -1598,13 +1595,13 @@
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
         <v>65</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G82" t="s">
         <v>66</v>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8">

--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 EL.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 EL.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ELIC-100</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>15.38%</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
     <t>ELIC-200</t>
   </si>
   <si>
@@ -71,9 +77,6 @@
   </si>
   <si>
     <t>68.75%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
   </si>
   <si>
     <t>DAVIS S</t>
@@ -375,12 +378,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -674,15 +676,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -707,935 +709,1043 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.077</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>2.375</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>2.2</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>1.3</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>2.75</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>2.385</v>
       </c>
       <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
         <v>2.6305</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
         <v>2.546</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>3.5</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="n">
         <v>3.833</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
         <v>2.769</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
         <v>2.398</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" t="n">
         <v>2.824</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" t="n">
         <v>1.722</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="n">
         <v>1.909</v>
       </c>
       <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" t="s">
         <v>65</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>64</v>
       </c>
       <c r="C38" t="n">
         <v>2.65</v>
       </c>
       <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
         <v>28</v>
       </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
         <v>2.0835</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" t="s">
         <v>74</v>
       </c>
-      <c r="G41" t="s">
-        <v>73</v>
-      </c>
       <c r="H41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
         <v>13</v>
       </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
         <v>3.333</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" t="n">
         <v>2.5</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" t="n">
         <v>2.75</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" t="n">
         <v>2.333</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" t="s">
         <v>81</v>
-      </c>
-      <c r="F52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>80</v>
       </c>
       <c r="C55" t="n">
         <v>2.143</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="n">
         <v>1.5</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" t="n">
         <v>1.5415</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" t="n">
         <v>2.429</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" t="n">
         <v>1.452</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C68" t="n">
         <v>3.222</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" t="n">
         <v>2.6</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
         <v>28</v>
       </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" t="n">
         <v>2.0935</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75" t="n">
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" t="n">
         <v>2.5125</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
         <v>28</v>
       </c>
-      <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="B82" t="s">
         <v>27</v>
-      </c>
-      <c r="H81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
-        <v>26</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" t="s">
         <v>66</v>
       </c>
-      <c r="H82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85" t="n">
         <v>1.923</v>
       </c>
       <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
         <v>13</v>
       </c>
-      <c r="E85" t="s">
-        <v>12</v>
-      </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
         <v>13</v>
       </c>
-      <c r="H85" t="s">
-        <v>12</v>
+      <c r="I85" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
